--- a/Comparison Automation/Comparison Data.xlsx
+++ b/Comparison Automation/Comparison Data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Batches\211213-Illumina-UiPath\211213-Illumina-RPA\Comparison Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B723328-003A-4DE7-B33F-D927D801C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08F6391-3969-4F5F-A008-87A22C5DB457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34065" yWindow="1050" windowWidth="14400" windowHeight="7365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -601,13 +602,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B7E552-B838-4D8F-9AB9-D143DF1E6758}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>6.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-12</v>
+      </c>
+      <c r="B10">
+        <v>1256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>-176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.01</v>
+      </c>
+      <c r="B13">
+        <v>5.0010000000000003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-0.01</v>
+      </c>
+      <c r="B14">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>142</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Comparison Automation/Comparison Data.xlsx
+++ b/Comparison Automation/Comparison Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Batches\211213-Illumina-UiPath\211213-Illumina-RPA\Comparison Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08F6391-3969-4F5F-A008-87A22C5DB457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA822EE-E3EF-4AC5-AAB3-49B5C8C75B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,9 +605,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B7E552-B838-4D8F-9AB9-D143DF1E6758}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -813,6 +818,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
